--- a/data/fahad-pipette-testing-1-27-16.xlsx
+++ b/data/fahad-pipette-testing-1-27-16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\micropipette\micropipette\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Ependorf 200, 50, 20 uL" sheetId="2" r:id="rId2"/>
     <sheet name="Fisherbrand 10uL" sheetId="3" r:id="rId3"/>
     <sheet name="Printed Pipette" sheetId="4" r:id="rId4"/>
+    <sheet name="Dr.E" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="11">
   <si>
     <t>Time</t>
   </si>
@@ -57,9 +58,6 @@
   </si>
   <si>
     <t>Trial 3</t>
-  </si>
-  <si>
-    <t>11.o</t>
   </si>
   <si>
     <t>non drifting 10uL</t>
@@ -960,7 +958,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,8 +1480,8 @@
       <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
+      <c r="E27" s="1">
+        <v>11</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
@@ -1673,7 +1671,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,6 +1805,729 @@
       <c r="H45" s="1">
         <v>12.8</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>189.6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>193.3</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>190.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>189.7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>193.2</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>191.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>190.3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>194.2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>191.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>189.4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>193.4</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>190.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>192.1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>195.3</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>191.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44.3</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/fahad-pipette-testing-1-27-16.xlsx
+++ b/data/fahad-pipette-testing-1-27-16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="9045" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="9045" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Evaporation " sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="16">
   <si>
     <t>Time</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>non drifting 10uL</t>
+  </si>
+  <si>
+    <t>Mass(mg) 200uL</t>
+  </si>
+  <si>
+    <t>Mass(mg) 50uL</t>
+  </si>
+  <si>
+    <t>Mass(mg) 20uL</t>
+  </si>
+  <si>
+    <t>Mass(mg) 10uL</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -836,7 +851,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,10 +970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,21 +989,21 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,14 +1117,29 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <f>AVERAGE(B2:B6)</f>
+        <v>193.84</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <f>AVERAGE(E2:E6)</f>
+        <v>194.74</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
+        <f>AVERAGE(H2:H6)</f>
+        <v>189.42000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1126,21 +1156,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1254,14 +1284,29 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <f>AVERAGE(B10:B14)</f>
+        <v>50.46</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <f>AVERAGE(E10:E14)</f>
+        <v>48.04</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1">
+        <f>AVERAGE(H10:H14)</f>
+        <v>49.8</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1278,21 +1323,21 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,14 +1451,29 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(B18:B22)</f>
+        <v>18.36</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1">
+        <f>AVERAGE(E18:E22)</f>
+        <v>19.060000000000002</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
+        <f>AVERAGE(H18:H22)</f>
+        <v>18.48</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1430,21 +1490,21 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,26 +1617,49 @@
         <v>9</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1">
+        <f>AVERAGE(B26:B30)</f>
+        <v>7.7200000000000006</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1">
+        <f>AVERAGE(E26:E30)</f>
+        <v>10.760000000000002</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1">
+        <f>AVERAGE(H26:H30)</f>
+        <v>9.82</v>
+      </c>
+    </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1679,21 +1762,21 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1804,6 +1887,29 @@
       </c>
       <c r="H45" s="1">
         <v>12.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="1">
+        <f>AVERAGE(B41:B45)</f>
+        <v>11.540000000000001</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1">
+        <f>AVERAGE(E41:E45)</f>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="1">
+        <f>AVERAGE(H41:H45)</f>
+        <v>12.74</v>
       </c>
     </row>
   </sheetData>
@@ -1815,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,21 +1932,21 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1954,14 +2060,29 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <f>AVERAGE(B2:B6)</f>
+        <v>190.21999999999997</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <f>AVERAGE(E2:E6)</f>
+        <v>193.88000000000002</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
+        <f>AVERAGE(H2:H6)</f>
+        <v>191.07999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1978,21 +2099,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2106,14 +2227,29 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <f>AVERAGE(B10:B14)</f>
+        <v>43.279999999999994</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <f>AVERAGE(E10:E14)</f>
+        <v>44.179999999999993</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1">
+        <f>AVERAGE(H10:H14)</f>
+        <v>48.62</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -2130,21 +2266,21 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2258,14 +2394,29 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(B18:B22)</f>
+        <v>16.720000000000006</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1">
+        <f>AVERAGE(E18:E22)</f>
+        <v>21.520000000000003</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
+        <f>AVERAGE(H18:H22)</f>
+        <v>15.4</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -2282,21 +2433,21 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2407,6 +2558,29 @@
       </c>
       <c r="H30" s="1">
         <v>7.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1">
+        <f>AVERAGE(B26:B30)</f>
+        <v>7.2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1">
+        <f>AVERAGE(E26:E30)</f>
+        <v>4</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1">
+        <f>AVERAGE(H26:H30)</f>
+        <v>7.9</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">

--- a/data/fahad-pipette-testing-1-27-16.xlsx
+++ b/data/fahad-pipette-testing-1-27-16.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\micropipette\micropipette\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="9045" activeTab="4"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="22440" windowHeight="11780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Evaporation " sheetId="1" r:id="rId1"/>
@@ -18,8 +13,11 @@
     <sheet name="Printed Pipette" sheetId="4" r:id="rId4"/>
     <sheet name="Dr.E" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="20">
   <si>
     <t>Time</t>
   </si>
@@ -77,15 +75,43 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Converted Volume</t>
+  </si>
+  <si>
+    <t>systematic</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>rand</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,8 +134,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -117,7 +153,17 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -176,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,13 +448,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,64 +465,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -488,14 +539,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -517,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -533,7 +584,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -549,7 +600,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -565,7 +616,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -581,7 +632,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -597,7 +648,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -607,7 +658,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -617,7 +668,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -639,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -655,7 +706,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -671,7 +722,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -687,7 +738,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -703,7 +754,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -719,7 +770,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -729,7 +780,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -739,7 +790,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -777,7 +828,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -793,7 +844,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -809,7 +860,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -825,7 +876,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -843,6 +894,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -854,14 +910,14 @@
       <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -883,7 +939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -899,7 +955,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -915,7 +971,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -931,7 +987,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -947,7 +1003,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -965,26 +1021,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1005,8 +1066,23 @@
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1028,7 +1104,7 @@
         <v>191.6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1050,7 +1126,7 @@
         <v>190.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1072,7 +1148,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1094,7 +1170,7 @@
         <v>188.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1116,7 +1192,7 @@
         <v>187.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1140,8 +1216,28 @@
         <f>AVERAGE(H2:H6)</f>
         <v>189.42000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>1.0038*AVERAGE(B7,E7,H7)</f>
+        <v>193.39879999999999</v>
+      </c>
+      <c r="K7">
+        <f>J7-200</f>
+        <v>-6.6012000000000057</v>
+      </c>
+      <c r="L7">
+        <f>100*(K7/200)</f>
+        <v>-3.3006000000000029</v>
+      </c>
+      <c r="M7">
+        <f>STDEV(B7,E7,H7)</f>
+        <v>2.8474784166580269</v>
+      </c>
+      <c r="N7">
+        <f>100*(M7/J7)</f>
+        <v>1.4723351006614451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1151,7 +1247,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1195,7 +1291,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1217,7 +1313,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1239,7 +1335,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1261,7 +1357,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1283,7 +1379,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1307,8 +1403,28 @@
         <f>AVERAGE(H10:H14)</f>
         <v>49.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>1.0038*AVERAGE(B15,E15,H15)</f>
+        <v>49.621180000000003</v>
+      </c>
+      <c r="K15">
+        <f>J15-50</f>
+        <v>-0.37881999999999749</v>
+      </c>
+      <c r="L15">
+        <f>100*(K15/50)</f>
+        <v>-0.75763999999999498</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M40" si="0">STDEV(B15,E15,H15)</f>
+        <v>1.2509729546770123</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:N40" si="1">100*(M15/J15)</f>
+        <v>2.5210463650340689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1318,7 +1434,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1362,7 +1478,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1384,7 +1500,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1406,7 +1522,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1428,7 +1544,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -1450,7 +1566,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1474,8 +1590,28 @@
         <f>AVERAGE(H18:H22)</f>
         <v>18.48</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f>1.0038*AVERAGE(B23,E23,H23)</f>
+        <v>18.704140000000002</v>
+      </c>
+      <c r="K23">
+        <f>J23-20</f>
+        <v>-1.2958599999999976</v>
+      </c>
+      <c r="L23">
+        <f>100*(K23/20)</f>
+        <v>-6.4792999999999878</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.3743438704364403</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>2.0013957895762124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1485,7 +1621,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1507,7 +1643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1529,7 +1665,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1551,7 +1687,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1573,7 +1709,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -1595,7 +1731,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -1617,7 +1753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1639,8 +1775,28 @@
         <f>AVERAGE(H26:H30)</f>
         <v>9.82</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" ref="J31:J47" si="2">1.0038*AVERAGE(B31,E31,H31)</f>
+        <v>9.4691800000000015</v>
+      </c>
+      <c r="K31">
+        <f>J31-10</f>
+        <v>-0.53081999999999852</v>
+      </c>
+      <c r="L31">
+        <f>100*(K31/10)</f>
+        <v>-5.3081999999999852</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1.5564489497999257</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>16.43699823849505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +1818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -1680,7 +1836,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -1698,7 +1854,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -1716,7 +1872,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -1734,7 +1890,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -1752,12 +1908,12 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -1778,8 +1934,28 @@
       <c r="H40" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" t="e">
+        <f t="shared" ref="K40" si="3">J40-10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" t="e">
+        <f t="shared" ref="L40" si="4">100*(K40/10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -1801,7 +1977,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -1823,7 +1999,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -1845,7 +2021,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -1867,7 +2043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>5</v>
       </c>
@@ -1889,7 +2065,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -1911,23 +2087,49 @@
         <f>AVERAGE(H41:H45)</f>
         <v>12.74</v>
       </c>
+      <c r="J46">
+        <f t="shared" ref="J46" si="5">1.0038*AVERAGE(B46,E46,H46)</f>
+        <v>11.951912000000002</v>
+      </c>
+      <c r="K46">
+        <f>J46-10</f>
+        <v>1.9519120000000019</v>
+      </c>
+      <c r="L46">
+        <f>100*(K46/10)</f>
+        <v>19.519120000000019</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46" si="6">STDEV(B46,E46,H46)</f>
+        <v>0.72341781380702297</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ref="N46" si="7">100*(M46/J46)</f>
+        <v>6.052737116931775</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1948,8 +2150,23 @@
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1971,7 +2188,7 @@
         <v>190.7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1993,7 +2210,7 @@
         <v>191.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2015,7 +2232,7 @@
         <v>191.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2037,7 +2254,7 @@
         <v>190.9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2059,7 +2276,7 @@
         <v>191.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2083,8 +2300,28 @@
         <f>AVERAGE(H2:H6)</f>
         <v>191.07999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>1.0038*AVERAGE(B7,E7,H7)</f>
+        <v>192.45522800000003</v>
+      </c>
+      <c r="K7">
+        <f>J7-200</f>
+        <v>-7.5447719999999663</v>
+      </c>
+      <c r="L7">
+        <f>100*(K7/200)</f>
+        <v>-3.7723859999999831</v>
+      </c>
+      <c r="M7">
+        <f>STDEV(B7,E7,H7)</f>
+        <v>1.9137746297130809</v>
+      </c>
+      <c r="N7">
+        <f>100*(M7/J7)</f>
+        <v>0.99439991815295381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2094,7 +2331,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2116,7 +2353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2138,7 +2375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -2160,7 +2397,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -2182,7 +2419,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -2204,7 +2441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -2226,7 +2463,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2250,8 +2487,28 @@
         <f>AVERAGE(H10:H14)</f>
         <v>48.62</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>1.0038*AVERAGE(B15,E15,H15)</f>
+        <v>45.532367999999991</v>
+      </c>
+      <c r="K15">
+        <f>J15-50</f>
+        <v>-4.4676320000000089</v>
+      </c>
+      <c r="L15">
+        <f>100*(K15/50)</f>
+        <v>-8.9352640000000179</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M40" si="0">STDEV(B15,E15,H15)</f>
+        <v>2.8588808999327013</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:N40" si="1">100*(M15/J15)</f>
+        <v>6.278788091874997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2261,7 +2518,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2283,7 +2540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2305,7 +2562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -2327,7 +2584,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -2349,7 +2606,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2371,7 +2628,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -2393,7 +2650,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -2417,8 +2674,28 @@
         <f>AVERAGE(H18:H22)</f>
         <v>15.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f>1.0038*AVERAGE(B23,E23,H23)</f>
+        <v>17.947944000000003</v>
+      </c>
+      <c r="K23">
+        <f>J23-20</f>
+        <v>-2.0520559999999968</v>
+      </c>
+      <c r="L23">
+        <f>100*(K23/20)</f>
+        <v>-10.260279999999984</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>3.2206831573441126</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>17.944579932632461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2428,7 +2705,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -2450,7 +2727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -2472,7 +2749,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -2494,7 +2771,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -2516,7 +2793,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -2538,7 +2815,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -2560,7 +2837,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -2582,8 +2859,28 @@
         <f>AVERAGE(H26:H30)</f>
         <v>7.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" ref="J31:J47" si="2">1.0038*AVERAGE(B31,E31,H31)</f>
+        <v>6.3908600000000009</v>
+      </c>
+      <c r="K31">
+        <f>J31-10</f>
+        <v>-3.6091399999999991</v>
+      </c>
+      <c r="L31">
+        <f>100*(K31/10)</f>
+        <v>-36.091399999999993</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>2.0792626898334237</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>32.534943494825789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2593,7 +2890,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2603,7 +2900,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2613,7 +2910,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2623,7 +2920,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2633,7 +2930,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2643,7 +2940,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2652,8 +2949,28 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" t="e">
+        <f t="shared" ref="K40" si="3">J40-10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" t="e">
+        <f t="shared" ref="L40" si="4">100*(K40/10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2663,7 +2980,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2673,7 +2990,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2683,7 +3000,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2693,7 +3010,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2705,5 +3022,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>